--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.79</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -998,12 +998,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0596</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,149 +605,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1437</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001468</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发改革先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1348</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -888,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,35 +793,149 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>519677</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -982,96 +950,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -605,36 +622,186 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>申万菱信量化小盘股票（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -699,36 +866,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2718</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -737,6 +904,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -944,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600997-开滦股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票（LOF）A</t>
+          <t>招商中证煤炭等权指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>17.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.5344</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012297</t>
+          <t>013596</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东兴宸瑞量化混合A</t>
+          <t>招商中证煤炭等权指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>008736</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>南方高股息主题股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>55.69</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0255</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012298</t>
+          <t>016347</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东兴宸瑞量化混合C</t>
+          <t>招商中证煤炭等权指数（LOF）E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -774,34 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013918</t>
+          <t>008737</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票（LOF）C</t>
+          <t>南方高股息主题股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -866,36 +885,186 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>申万菱信量化小盘股票（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -960,36 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2718</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -998,6 +1167,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
